--- a/验收评审需具备材料.xlsx
+++ b/验收评审需具备材料.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangwei/smrz-maintain-doc/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>项目验收评审记录</t>
   </si>
@@ -283,6 +278,10 @@
     <rPh sb="7" eb="8">
       <t>ey</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it has changed!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -290,7 +289,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,6 +406,32 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -419,32 +444,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -505,7 +504,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -540,7 +539,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -749,343 +748,349 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="47.33203125" customWidth="1"/>
-    <col min="4" max="4" width="77.1640625" customWidth="1"/>
-    <col min="5" max="5" width="31.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="47.375" customWidth="1"/>
+    <col min="4" max="4" width="77.125" customWidth="1"/>
+    <col min="5" max="5" width="31.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="1:5" ht="16.5">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+    <row r="4" spans="1:5" ht="16.5">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+    <row r="5" spans="1:5" ht="16.5">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+    <row r="6" spans="1:5" ht="16.5">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+    <row r="7" spans="1:5" ht="16.5">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+    <row r="8" spans="1:5" ht="16.5">
+      <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+    <row r="9" spans="1:5" ht="16.5">
+      <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+    <row r="10" spans="1:5" ht="16.5">
+      <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+    <row r="11" spans="1:5" ht="16.5">
+      <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+    <row r="12" spans="1:5" ht="16.5">
+      <c r="A12" s="2">
         <v>9</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+    <row r="13" spans="1:5" ht="16.5">
+      <c r="A13" s="2">
         <v>10</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+    <row r="14" spans="1:5" ht="16.5">
+      <c r="A14" s="2">
         <v>11</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+    <row r="15" spans="1:5" ht="16.5">
+      <c r="A15" s="2">
         <v>12</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" ht="16.5">
+      <c r="A16" s="2">
         <v>13</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+      <c r="D16" s="10"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.5">
+      <c r="A17" s="2">
         <v>14</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+      <c r="D17" s="10"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" ht="16.5">
+      <c r="A18" s="2">
         <v>15</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="10" t="s">
+      <c r="D18" s="10"/>
+      <c r="E18" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+    <row r="19" spans="1:5" ht="16.5">
+      <c r="A19" s="2">
         <v>16</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="8"/>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+    <row r="20" spans="1:5" ht="16.5">
+      <c r="A20" s="2">
         <v>17</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+    <row r="21" spans="1:5" ht="16.5">
+      <c r="A21" s="2">
         <v>18</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
+    <row r="22" spans="1:5" ht="16.5">
+      <c r="A22" s="2">
         <v>19</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C22" s="8"/>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="10"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:B9"/>
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="B15:B18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>